--- a/data/Взаимоотношения организмов (Общая экология 2021)(1-79).xlsx
+++ b/data/Взаимоотношения организмов (Общая экология 2021)(1-79).xlsx
@@ -360,13 +360,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,22 +382,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,26 +420,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,9 +466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,14 +478,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,31 +505,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,13 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,49 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,31 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,19 +600,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +660,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,31 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,6 +737,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -755,50 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,6 +779,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -829,153 +822,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,7 +1026,7 @@
     <dxf/>
     <dxf/>
     <dxf>
-      <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf/>
     <dxf/>
@@ -1378,8 +1371,8 @@
   <sheetPr/>
   <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1501,34 +1494,24 @@
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
-      <c r="F2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2"/>
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34">
@@ -1541,34 +1524,24 @@
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="F3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3"/>
       <c r="AH3" s="1"/>
     </row>
     <row r="4" spans="1:34">
@@ -1581,34 +1554,24 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
-      <c r="F4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4"/>
       <c r="AH4" s="1"/>
     </row>
     <row r="5" spans="1:34">
@@ -1621,34 +1584,24 @@
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
-      <c r="F5"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5"/>
       <c r="AH5" s="1"/>
     </row>
     <row r="6" spans="1:34">
@@ -1661,34 +1614,24 @@
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
-      <c r="F6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6"/>
       <c r="AH6" s="1"/>
     </row>
     <row r="7" spans="1:34">
@@ -1701,34 +1644,24 @@
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7"/>
       <c r="AH7" s="1"/>
     </row>
     <row r="8" spans="1:34">
@@ -1741,34 +1674,24 @@
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
-      <c r="F8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8"/>
       <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="1:34">
@@ -1781,34 +1704,24 @@
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9"/>
       <c r="AH9" s="1"/>
     </row>
     <row r="10" spans="1:34">
@@ -1821,34 +1734,24 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
-      <c r="F10"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10"/>
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="1:34">
@@ -1861,34 +1764,24 @@
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
-      <c r="F11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11"/>
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34">
@@ -1901,34 +1794,24 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
-      <c r="F12"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12"/>
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="1:34">
@@ -1941,34 +1824,24 @@
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
-      <c r="F13"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13"/>
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="1:34">
@@ -1981,34 +1854,24 @@
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
-      <c r="F14"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14"/>
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="1:34">
@@ -2021,34 +1884,24 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
-      <c r="F15"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15"/>
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="1:34">
@@ -2061,34 +1914,24 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
-      <c r="F16"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16"/>
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="1:34">
@@ -2101,34 +1944,24 @@
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
-      <c r="F17"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17"/>
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="1:34">
@@ -2141,34 +1974,24 @@
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
-      <c r="F18"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18"/>
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="1:34">
@@ -2181,34 +2004,24 @@
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19"/>
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="1:34">
@@ -2221,34 +2034,24 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
-      <c r="F20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20"/>
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="1:34">
@@ -2261,34 +2064,24 @@
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21"/>
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="1:34">
@@ -2301,34 +2094,24 @@
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
-      <c r="F22"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22"/>
       <c r="AH22" s="1"/>
     </row>
     <row r="23" spans="1:34">
@@ -2341,34 +2124,24 @@
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23"/>
       <c r="AH23" s="1"/>
     </row>
     <row r="24" spans="1:34">
@@ -2381,34 +2154,24 @@
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24"/>
       <c r="AH24" s="1"/>
     </row>
     <row r="25" spans="1:34">
@@ -2421,34 +2184,24 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25"/>
       <c r="AH25" s="1"/>
     </row>
     <row r="26" spans="1:34">
@@ -2461,34 +2214,24 @@
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26"/>
       <c r="AH26" s="1"/>
     </row>
     <row r="27" spans="1:34">
@@ -2501,34 +2244,24 @@
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27"/>
       <c r="AH27" s="1"/>
     </row>
     <row r="28" spans="1:34">
@@ -2541,34 +2274,24 @@
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
-      <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28"/>
       <c r="AH28" s="1"/>
     </row>
     <row r="29" spans="1:34">
@@ -2576,39 +2299,29 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-      <c r="U29"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29"/>
       <c r="AH29" s="1"/>
     </row>
     <row r="30" spans="1:34">
@@ -2621,34 +2334,24 @@
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1"/>
-      <c r="F30"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30"/>
       <c r="AH30" s="1"/>
     </row>
     <row r="31" spans="1:34">
@@ -2661,34 +2364,24 @@
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1"/>
-      <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31"/>
       <c r="AH31" s="1"/>
     </row>
     <row r="32" spans="1:34">
@@ -2701,34 +2394,24 @@
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1"/>
-      <c r="F32"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32"/>
       <c r="AH32" s="1"/>
     </row>
     <row r="33" spans="1:34">
@@ -2741,34 +2424,24 @@
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="F33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33"/>
       <c r="AH33" s="1"/>
     </row>
     <row r="34" spans="1:34">
@@ -2781,34 +2454,24 @@
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1"/>
-      <c r="F34"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34"/>
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:34">
@@ -2821,34 +2484,24 @@
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
-      <c r="F35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35"/>
       <c r="AH35" s="1"/>
     </row>
     <row r="36" spans="1:34">
@@ -2861,34 +2514,24 @@
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
-      <c r="F36"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
-      <c r="AG36"/>
       <c r="AH36" s="1"/>
     </row>
     <row r="37" spans="1:34">
@@ -2901,34 +2544,24 @@
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
-      <c r="F37"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37"/>
       <c r="AH37" s="1"/>
     </row>
     <row r="38" spans="1:34">
@@ -2941,34 +2574,24 @@
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
       <c r="E38" s="1"/>
-      <c r="F38"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-      <c r="AA38"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38"/>
       <c r="AH38" s="1"/>
     </row>
     <row r="39" spans="1:34">
@@ -2981,34 +2604,24 @@
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="1"/>
-      <c r="F39"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39"/>
       <c r="AH39" s="1"/>
     </row>
     <row r="40" spans="1:34">
@@ -3016,39 +2629,29 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1"/>
-      <c r="F40"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40"/>
       <c r="AH40" s="1"/>
     </row>
     <row r="41" spans="1:34">
@@ -3061,34 +2664,24 @@
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
-      <c r="F41"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41"/>
       <c r="AH41" s="1"/>
     </row>
     <row r="42" spans="1:34">
@@ -3101,34 +2694,24 @@
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
-      <c r="F42"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AD42"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
-      <c r="AG42"/>
       <c r="AH42" s="1"/>
     </row>
     <row r="43" spans="1:34">
@@ -3141,34 +2724,24 @@
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
-      <c r="F43"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-      <c r="AA43"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43"/>
       <c r="AH43" s="1"/>
     </row>
     <row r="44" spans="1:34">
@@ -3181,34 +2754,24 @@
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
-      <c r="F44"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AA44"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44"/>
       <c r="AH44" s="1"/>
     </row>
     <row r="45" spans="1:34">
@@ -3221,34 +2784,24 @@
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
-      <c r="F45"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
-      <c r="AG45"/>
       <c r="AH45" s="1"/>
     </row>
     <row r="46" spans="1:34">
@@ -3261,34 +2814,24 @@
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
-      <c r="F46"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-      <c r="U46"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-      <c r="AA46"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46"/>
       <c r="AH46" s="1"/>
     </row>
     <row r="47" spans="1:34">
@@ -3301,34 +2844,24 @@
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
-      <c r="F47"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-      <c r="U47"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47"/>
       <c r="AH47" s="1"/>
     </row>
     <row r="48" spans="1:34">
@@ -3341,34 +2874,24 @@
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
-      <c r="F48"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-      <c r="U48"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-      <c r="AA48"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48"/>
       <c r="AH48" s="1"/>
     </row>
     <row r="49" spans="1:34">
@@ -3381,34 +2904,24 @@
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
-      <c r="F49"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-      <c r="U49"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49"/>
       <c r="AH49" s="1"/>
     </row>
     <row r="50" spans="1:34">
@@ -3421,34 +2934,24 @@
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
-      <c r="F50"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-      <c r="U50"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
-      <c r="AG50"/>
       <c r="AH50" s="1"/>
     </row>
     <row r="51" spans="1:34">
@@ -3461,34 +2964,24 @@
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
       <c r="E51" s="1"/>
-      <c r="F51"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
-      <c r="AG51"/>
       <c r="AH51" s="1"/>
     </row>
     <row r="52" spans="1:34">
@@ -3501,34 +2994,24 @@
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
-      <c r="F52"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-      <c r="U52"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-      <c r="AA52"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-      <c r="AD52"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
-      <c r="AG52"/>
       <c r="AH52" s="1"/>
     </row>
     <row r="53" spans="1:34">
@@ -3541,34 +3024,24 @@
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
-      <c r="F53"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="U53"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
-      <c r="AG53"/>
       <c r="AH53" s="1"/>
     </row>
     <row r="54" spans="1:34">
@@ -3581,34 +3054,24 @@
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
       <c r="E54" s="1"/>
-      <c r="F54"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
-      <c r="X54"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-      <c r="AA54"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
-      <c r="AG54"/>
       <c r="AH54" s="1"/>
     </row>
     <row r="55" spans="1:34">
@@ -3621,34 +3084,24 @@
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
       <c r="E55" s="1"/>
-      <c r="F55"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="X55"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-      <c r="AA55"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
-      <c r="AG55"/>
       <c r="AH55" s="1"/>
     </row>
     <row r="56" spans="1:34">
@@ -3656,39 +3109,29 @@
         <v>88</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
       <c r="E56" s="1"/>
-      <c r="F56"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-      <c r="U56"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-      <c r="AA56"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
-      <c r="AG56"/>
       <c r="AH56" s="1"/>
     </row>
     <row r="57" spans="1:34">
@@ -3701,34 +3144,24 @@
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="1"/>
-      <c r="F57"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-      <c r="U57"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-      <c r="X57"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-      <c r="AA57"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
-      <c r="AG57"/>
       <c r="AH57" s="1"/>
     </row>
     <row r="58" spans="1:34">
@@ -3741,34 +3174,24 @@
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
       <c r="E58" s="1"/>
-      <c r="F58"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-      <c r="U58"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-      <c r="AA58"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
-      <c r="AG58"/>
       <c r="AH58" s="1"/>
     </row>
     <row r="59" spans="1:34">
@@ -3781,34 +3204,24 @@
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
       <c r="E59" s="1"/>
-      <c r="F59"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="X59"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-      <c r="AA59"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59"/>
       <c r="AH59" s="1"/>
     </row>
     <row r="60" spans="1:34">
@@ -3821,34 +3234,24 @@
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
       <c r="E60" s="1"/>
-      <c r="F60"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="X60"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-      <c r="AA60"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60"/>
       <c r="AH60" s="1"/>
     </row>
     <row r="61" spans="1:34">
@@ -3861,34 +3264,24 @@
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
       <c r="E61" s="1"/>
-      <c r="F61"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="X61"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61"/>
       <c r="AH61" s="1"/>
     </row>
     <row r="62" spans="1:34">
@@ -3901,34 +3294,24 @@
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="E62" s="1"/>
-      <c r="F62"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-      <c r="AA62"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62"/>
       <c r="AH62" s="1"/>
     </row>
     <row r="63" spans="1:34">
@@ -3941,34 +3324,24 @@
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
       <c r="E63" s="1"/>
-      <c r="F63"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-      <c r="U63"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-      <c r="AA63"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-      <c r="AD63"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
-      <c r="AG63"/>
       <c r="AH63" s="1"/>
     </row>
     <row r="64" spans="1:34">
@@ -3981,34 +3354,24 @@
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
       <c r="E64" s="1"/>
-      <c r="F64"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-      <c r="U64"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-      <c r="X64"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-      <c r="AA64"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-      <c r="AD64"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AG64"/>
       <c r="AH64" s="1"/>
     </row>
     <row r="65" spans="1:34">
@@ -4021,34 +3384,24 @@
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1"/>
-      <c r="F65"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-      <c r="U65"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="X65"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AA65"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-      <c r="AD65"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65"/>
       <c r="AH65" s="1"/>
     </row>
     <row r="66" spans="1:34">
@@ -4061,34 +3414,24 @@
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
       <c r="E66" s="1"/>
-      <c r="F66"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="R66"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-      <c r="U66"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-      <c r="X66"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-      <c r="AA66"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-      <c r="AD66"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
-      <c r="AG66"/>
       <c r="AH66" s="1"/>
     </row>
     <row r="67" spans="1:34">
@@ -4101,34 +3444,24 @@
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
       <c r="E67" s="1"/>
-      <c r="F67"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-      <c r="U67"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-      <c r="X67"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AA67"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-      <c r="AD67"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
-      <c r="AG67"/>
       <c r="AH67" s="1"/>
     </row>
     <row r="68" spans="1:34">
@@ -4141,34 +3474,24 @@
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
       <c r="E68" s="1"/>
-      <c r="F68"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-      <c r="AA68"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
-      <c r="AG68"/>
       <c r="AH68" s="1"/>
     </row>
     <row r="69" spans="1:34">
@@ -4181,34 +3504,24 @@
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
       <c r="E69" s="1"/>
-      <c r="F69"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-      <c r="U69"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
-      <c r="X69"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
-      <c r="AG69"/>
       <c r="AH69" s="1"/>
     </row>
     <row r="70" spans="1:34">
@@ -4221,34 +3534,24 @@
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
       <c r="E70" s="1"/>
-      <c r="F70"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="R70"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="U70"/>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
-      <c r="X70"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-      <c r="AA70"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-      <c r="AD70"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
-      <c r="AG70"/>
       <c r="AH70" s="1"/>
     </row>
     <row r="71" spans="1:34">
@@ -4261,34 +3564,24 @@
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
       <c r="E71" s="1"/>
-      <c r="F71"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="U71"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
-      <c r="X71"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AA71"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-      <c r="AD71"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
-      <c r="AG71"/>
       <c r="AH71" s="1"/>
     </row>
     <row r="72" spans="1:34">
@@ -4301,34 +3594,24 @@
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
       <c r="E72" s="1"/>
-      <c r="F72"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="U72"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="X72"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-      <c r="AA72"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
-      <c r="AG72"/>
       <c r="AH72" s="1"/>
     </row>
     <row r="73" spans="1:34">
@@ -4341,34 +3624,24 @@
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
       <c r="E73" s="1"/>
-      <c r="F73"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
-      <c r="X73"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
-      <c r="AG73"/>
       <c r="AH73" s="1"/>
     </row>
     <row r="74" spans="1:34">
@@ -4381,34 +3654,24 @@
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
-      <c r="F74"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="U74"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
-      <c r="X74"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AA74"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
-      <c r="AG74"/>
       <c r="AH74" s="1"/>
     </row>
     <row r="75" spans="1:34">
@@ -4421,34 +3684,24 @@
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
-      <c r="F75"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="U75"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
-      <c r="X75"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AA75"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
-      <c r="AG75"/>
       <c r="AH75" s="1"/>
     </row>
     <row r="76" spans="1:34">
@@ -4461,34 +3714,24 @@
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
       <c r="E76" s="1"/>
-      <c r="F76"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
-      <c r="X76"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AA76"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
-      <c r="AG76"/>
       <c r="AH76" s="1"/>
     </row>
     <row r="77" spans="1:34">
@@ -4501,34 +3744,24 @@
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="1"/>
-      <c r="F77"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
-      <c r="X77"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AA77"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AG77"/>
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:34">
@@ -4541,34 +3774,24 @@
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="E78" s="1"/>
-      <c r="F78"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="L78"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
-      <c r="X78"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AA78"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
-      <c r="AG78"/>
       <c r="AH78" s="1"/>
     </row>
     <row r="79" spans="1:34">
@@ -4581,34 +3804,24 @@
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="E79" s="1"/>
-      <c r="F79"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="L79"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="U79"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
-      <c r="X79"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AA79"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
-      <c r="AG79"/>
       <c r="AH79" s="1"/>
     </row>
     <row r="80" spans="1:34">
@@ -4621,34 +3834,24 @@
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
-      <c r="F80"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="L80"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="R80"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
-      <c r="X80"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AA80"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
-      <c r="AG80"/>
       <c r="AH80" s="1"/>
     </row>
   </sheetData>
